--- a/Assets/06.Table/YokaiPowerOpen.xlsx
+++ b/Assets/06.Table/YokaiPowerOpen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289F269-8312-4A8D-99F1-6E2B8FC3D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893454F8-8472-4863-A990-6D6BF9436634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="YokaiPowerOpen" sheetId="2" r:id="rId1"/>
@@ -229,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,12 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:G793"/>
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21611,7 +21605,7 @@
         <v>98</v>
       </c>
       <c r="C779">
-        <f t="shared" ref="C779:C793" si="24">C771</f>
+        <f t="shared" ref="C779:C842" si="24">C771</f>
         <v>2</v>
       </c>
       <c r="D779">
@@ -21796,7 +21790,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <f t="shared" ref="B786:B793" si="25">B778+1</f>
+        <f t="shared" ref="B786:B849" si="25">B778+1</f>
         <v>99</v>
       </c>
       <c r="C786">
@@ -21989,7 +21983,7 @@
         <v>100</v>
       </c>
       <c r="C793">
-        <f t="shared" si="24"/>
+        <f>C785</f>
         <v>8</v>
       </c>
       <c r="D793">
@@ -22005,6 +21999,5622 @@
       <c r="G793">
         <f>IF(C793=8,VLOOKUP(B793-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B793,balance!X:Z,2,FALSE)/100)</f>
         <v>0.29259999999999997</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="C794">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D794">
+        <v>9048</v>
+      </c>
+      <c r="E794" s="1">
+        <f>VLOOKUP(B794,balance!J:K,2,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="F794">
+        <v>89</v>
+      </c>
+      <c r="G794">
+        <f>IF(C794=8,VLOOKUP(B794-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B794,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="C795">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D795">
+        <v>9048</v>
+      </c>
+      <c r="E795" s="1">
+        <f>VLOOKUP(B795,balance!J:K,2,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="F795">
+        <v>89</v>
+      </c>
+      <c r="G795">
+        <f>IF(C795=8,VLOOKUP(B795-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B795,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="C796">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D796">
+        <v>9048</v>
+      </c>
+      <c r="E796" s="1">
+        <f>VLOOKUP(B796,balance!J:K,2,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="F796">
+        <v>89</v>
+      </c>
+      <c r="G796">
+        <f>IF(C796=8,VLOOKUP(B796-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B796,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="C797">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D797">
+        <v>9048</v>
+      </c>
+      <c r="E797" s="1">
+        <f>VLOOKUP(B797,balance!J:K,2,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="F797">
+        <v>89</v>
+      </c>
+      <c r="G797">
+        <f>IF(C797=8,VLOOKUP(B797-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B797,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="C798">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D798">
+        <v>9048</v>
+      </c>
+      <c r="E798" s="1">
+        <f>VLOOKUP(B798,balance!J:K,2,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="F798">
+        <v>89</v>
+      </c>
+      <c r="G798">
+        <f>IF(C798=8,VLOOKUP(B798-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B798,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="C799">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="D799">
+        <v>9048</v>
+      </c>
+      <c r="E799" s="1">
+        <f>VLOOKUP(B799,balance!J:K,2,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="F799">
+        <v>89</v>
+      </c>
+      <c r="G799">
+        <f>IF(C799=8,VLOOKUP(B799-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B799,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="C800">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="D800">
+        <v>9048</v>
+      </c>
+      <c r="E800" s="1">
+        <f>VLOOKUP(B800,balance!J:K,2,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="F800">
+        <v>89</v>
+      </c>
+      <c r="G800">
+        <f>IF(C800=8,VLOOKUP(B800-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B800,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C801">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="D801">
+        <v>9048</v>
+      </c>
+      <c r="E801" s="1">
+        <f>VLOOKUP(B801,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F801">
+        <v>89</v>
+      </c>
+      <c r="G801">
+        <f>IF(C801=8,VLOOKUP(B801-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B801,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.29889999999999994</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C802">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D802">
+        <v>9048</v>
+      </c>
+      <c r="E802" s="1">
+        <f>VLOOKUP(B802,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F802">
+        <v>89</v>
+      </c>
+      <c r="G802">
+        <f>IF(C802=8,VLOOKUP(B802-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B802,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.3599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C803">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D803">
+        <v>9048</v>
+      </c>
+      <c r="E803" s="1">
+        <f>VLOOKUP(B803,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F803">
+        <v>89</v>
+      </c>
+      <c r="G803">
+        <f>IF(C803=8,VLOOKUP(B803-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B803,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.3599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C804">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D804">
+        <v>9048</v>
+      </c>
+      <c r="E804" s="1">
+        <f>VLOOKUP(B804,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F804">
+        <v>89</v>
+      </c>
+      <c r="G804">
+        <f>IF(C804=8,VLOOKUP(B804-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B804,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.3599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C805">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D805">
+        <v>9048</v>
+      </c>
+      <c r="E805" s="1">
+        <f>VLOOKUP(B805,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F805">
+        <v>89</v>
+      </c>
+      <c r="G805">
+        <f>IF(C805=8,VLOOKUP(B805-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B805,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.3599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C806">
+        <f>C798</f>
+        <v>5</v>
+      </c>
+      <c r="D806">
+        <v>9048</v>
+      </c>
+      <c r="E806" s="1">
+        <f>VLOOKUP(B806,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F806">
+        <v>89</v>
+      </c>
+      <c r="G806">
+        <f>IF(C806=8,VLOOKUP(B806-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B806,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.3599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C807">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="D807">
+        <v>9048</v>
+      </c>
+      <c r="E807" s="1">
+        <f>VLOOKUP(B807,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F807">
+        <v>89</v>
+      </c>
+      <c r="G807">
+        <f>IF(C807=8,VLOOKUP(B807-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B807,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.3599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="C808">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="D808">
+        <v>9048</v>
+      </c>
+      <c r="E808" s="1">
+        <f>VLOOKUP(B808,balance!J:K,2,FALSE)</f>
+        <v>11000</v>
+      </c>
+      <c r="F808">
+        <v>89</v>
+      </c>
+      <c r="G808">
+        <f>IF(C808=8,VLOOKUP(B808-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B808,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.3599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C809">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="D809">
+        <v>9048</v>
+      </c>
+      <c r="E809" s="1">
+        <f>VLOOKUP(B809,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F809">
+        <v>89</v>
+      </c>
+      <c r="G809">
+        <f>IF(C809=8,VLOOKUP(B809-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B809,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.30519999999999997</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C810">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D810">
+        <v>9048</v>
+      </c>
+      <c r="E810" s="1">
+        <f>VLOOKUP(B810,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F810">
+        <v>89</v>
+      </c>
+      <c r="G810">
+        <f>IF(C810=8,VLOOKUP(B810-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B810,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C811">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D811">
+        <v>9048</v>
+      </c>
+      <c r="E811" s="1">
+        <f>VLOOKUP(B811,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F811">
+        <v>89</v>
+      </c>
+      <c r="G811">
+        <f>IF(C811=8,VLOOKUP(B811-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B811,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C812">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D812">
+        <v>9048</v>
+      </c>
+      <c r="E812" s="1">
+        <f>VLOOKUP(B812,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F812">
+        <v>89</v>
+      </c>
+      <c r="G812">
+        <f>IF(C812=8,VLOOKUP(B812-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B812,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C813">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D813">
+        <v>9048</v>
+      </c>
+      <c r="E813" s="1">
+        <f>VLOOKUP(B813,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F813">
+        <v>89</v>
+      </c>
+      <c r="G813">
+        <f>IF(C813=8,VLOOKUP(B813-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B813,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C814">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D814">
+        <v>9048</v>
+      </c>
+      <c r="E814" s="1">
+        <f>VLOOKUP(B814,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F814">
+        <v>89</v>
+      </c>
+      <c r="G814">
+        <f>IF(C814=8,VLOOKUP(B814-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B814,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C815">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="D815">
+        <v>9048</v>
+      </c>
+      <c r="E815" s="1">
+        <f>VLOOKUP(B815,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F815">
+        <v>89</v>
+      </c>
+      <c r="G815">
+        <f>IF(C815=8,VLOOKUP(B815-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B815,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="C816">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="D816">
+        <v>9048</v>
+      </c>
+      <c r="E816" s="1">
+        <f>VLOOKUP(B816,balance!J:K,2,FALSE)</f>
+        <v>11100</v>
+      </c>
+      <c r="F816">
+        <v>89</v>
+      </c>
+      <c r="G816">
+        <f>IF(C816=8,VLOOKUP(B816-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B816,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.4500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C817">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="D817">
+        <v>9048</v>
+      </c>
+      <c r="E817" s="1">
+        <f>VLOOKUP(B817,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F817">
+        <v>89</v>
+      </c>
+      <c r="G817">
+        <f>IF(C817=8,VLOOKUP(B817-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B817,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.3115</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C818">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D818">
+        <v>9048</v>
+      </c>
+      <c r="E818" s="1">
+        <f>VLOOKUP(B818,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F818">
+        <v>89</v>
+      </c>
+      <c r="G818">
+        <f>IF(C818=8,VLOOKUP(B818-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B818,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C819">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D819">
+        <v>9048</v>
+      </c>
+      <c r="E819" s="1">
+        <f>VLOOKUP(B819,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F819">
+        <v>89</v>
+      </c>
+      <c r="G819">
+        <f>IF(C819=8,VLOOKUP(B819-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B819,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C820">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D820">
+        <v>9048</v>
+      </c>
+      <c r="E820" s="1">
+        <f>VLOOKUP(B820,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F820">
+        <v>89</v>
+      </c>
+      <c r="G820">
+        <f>IF(C820=8,VLOOKUP(B820-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B820,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C821">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D821">
+        <v>9048</v>
+      </c>
+      <c r="E821" s="1">
+        <f>VLOOKUP(B821,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F821">
+        <v>89</v>
+      </c>
+      <c r="G821">
+        <f>IF(C821=8,VLOOKUP(B821-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B821,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C822">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D822">
+        <v>9048</v>
+      </c>
+      <c r="E822" s="1">
+        <f>VLOOKUP(B822,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F822">
+        <v>89</v>
+      </c>
+      <c r="G822">
+        <f>IF(C822=8,VLOOKUP(B822-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B822,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C823">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="D823">
+        <v>9048</v>
+      </c>
+      <c r="E823" s="1">
+        <f>VLOOKUP(B823,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F823">
+        <v>89</v>
+      </c>
+      <c r="G823">
+        <f>IF(C823=8,VLOOKUP(B823-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B823,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824">
+        <f t="shared" si="25"/>
+        <v>103</v>
+      </c>
+      <c r="C824">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="D824">
+        <v>9048</v>
+      </c>
+      <c r="E824" s="1">
+        <f>VLOOKUP(B824,balance!J:K,2,FALSE)</f>
+        <v>11200</v>
+      </c>
+      <c r="F824">
+        <v>89</v>
+      </c>
+      <c r="G824">
+        <f>IF(C824=8,VLOOKUP(B824-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B824,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C825">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="D825">
+        <v>9048</v>
+      </c>
+      <c r="E825" s="1">
+        <f>VLOOKUP(B825,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F825">
+        <v>89</v>
+      </c>
+      <c r="G825">
+        <f>IF(C825=8,VLOOKUP(B825-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B825,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.31850000000000001</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C826">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D826">
+        <v>9048</v>
+      </c>
+      <c r="E826" s="1">
+        <f>VLOOKUP(B826,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F826">
+        <v>89</v>
+      </c>
+      <c r="G826">
+        <f>IF(C826=8,VLOOKUP(B826-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B826,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.6499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C827">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D827">
+        <v>9048</v>
+      </c>
+      <c r="E827" s="1">
+        <f>VLOOKUP(B827,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F827">
+        <v>89</v>
+      </c>
+      <c r="G827">
+        <f>IF(C827=8,VLOOKUP(B827-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B827,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.6499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C828">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D828">
+        <v>9048</v>
+      </c>
+      <c r="E828" s="1">
+        <f>VLOOKUP(B828,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F828">
+        <v>89</v>
+      </c>
+      <c r="G828">
+        <f>IF(C828=8,VLOOKUP(B828-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B828,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.6499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C829">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D829">
+        <v>9048</v>
+      </c>
+      <c r="E829" s="1">
+        <f>VLOOKUP(B829,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F829">
+        <v>89</v>
+      </c>
+      <c r="G829">
+        <f>IF(C829=8,VLOOKUP(B829-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B829,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.6499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C830">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D830">
+        <v>9048</v>
+      </c>
+      <c r="E830" s="1">
+        <f>VLOOKUP(B830,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F830">
+        <v>89</v>
+      </c>
+      <c r="G830">
+        <f>IF(C830=8,VLOOKUP(B830-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B830,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.6499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C831">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="D831">
+        <v>9048</v>
+      </c>
+      <c r="E831" s="1">
+        <f>VLOOKUP(B831,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F831">
+        <v>89</v>
+      </c>
+      <c r="G831">
+        <f>IF(C831=8,VLOOKUP(B831-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B831,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.6499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832">
+        <f t="shared" si="25"/>
+        <v>104</v>
+      </c>
+      <c r="C832">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="D832">
+        <v>9048</v>
+      </c>
+      <c r="E832" s="1">
+        <f>VLOOKUP(B832,balance!J:K,2,FALSE)</f>
+        <v>11300</v>
+      </c>
+      <c r="F832">
+        <v>89</v>
+      </c>
+      <c r="G832">
+        <f>IF(C832=8,VLOOKUP(B832-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B832,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.6499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C833">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="D833">
+        <v>9048</v>
+      </c>
+      <c r="E833" s="1">
+        <f>VLOOKUP(B833,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F833">
+        <v>89</v>
+      </c>
+      <c r="G833">
+        <f>IF(C833=8,VLOOKUP(B833-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B833,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.32549999999999996</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C834">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D834">
+        <v>9048</v>
+      </c>
+      <c r="E834" s="1">
+        <f>VLOOKUP(B834,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F834">
+        <v>89</v>
+      </c>
+      <c r="G834">
+        <f>IF(C834=8,VLOOKUP(B834-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B834,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C835">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="D835">
+        <v>9048</v>
+      </c>
+      <c r="E835" s="1">
+        <f>VLOOKUP(B835,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F835">
+        <v>89</v>
+      </c>
+      <c r="G835">
+        <f>IF(C835=8,VLOOKUP(B835-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B835,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C836">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D836">
+        <v>9048</v>
+      </c>
+      <c r="E836" s="1">
+        <f>VLOOKUP(B836,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F836">
+        <v>89</v>
+      </c>
+      <c r="G836">
+        <f>IF(C836=8,VLOOKUP(B836-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B836,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C837">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D837">
+        <v>9048</v>
+      </c>
+      <c r="E837" s="1">
+        <f>VLOOKUP(B837,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F837">
+        <v>89</v>
+      </c>
+      <c r="G837">
+        <f>IF(C837=8,VLOOKUP(B837-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B837,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C838">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D838">
+        <v>9048</v>
+      </c>
+      <c r="E838" s="1">
+        <f>VLOOKUP(B838,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F838">
+        <v>89</v>
+      </c>
+      <c r="G838">
+        <f>IF(C838=8,VLOOKUP(B838-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B838,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C839">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="D839">
+        <v>9048</v>
+      </c>
+      <c r="E839" s="1">
+        <f>VLOOKUP(B839,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F839">
+        <v>89</v>
+      </c>
+      <c r="G839">
+        <f>IF(C839=8,VLOOKUP(B839-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B839,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840">
+        <f t="shared" si="25"/>
+        <v>105</v>
+      </c>
+      <c r="C840">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="D840">
+        <v>9048</v>
+      </c>
+      <c r="E840" s="1">
+        <f>VLOOKUP(B840,balance!J:K,2,FALSE)</f>
+        <v>11400</v>
+      </c>
+      <c r="F840">
+        <v>89</v>
+      </c>
+      <c r="G840">
+        <f>IF(C840=8,VLOOKUP(B840-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B840,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C841">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="D841">
+        <v>9048</v>
+      </c>
+      <c r="E841" s="1">
+        <f>VLOOKUP(B841,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F841">
+        <v>89</v>
+      </c>
+      <c r="G841">
+        <f>IF(C841=8,VLOOKUP(B841-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B841,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C842">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="D842">
+        <v>9048</v>
+      </c>
+      <c r="E842" s="1">
+        <f>VLOOKUP(B842,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F842">
+        <v>89</v>
+      </c>
+      <c r="G842">
+        <f>IF(C842=8,VLOOKUP(B842-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B842,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C843">
+        <f t="shared" ref="C843:C906" si="26">C835</f>
+        <v>2</v>
+      </c>
+      <c r="D843">
+        <v>9048</v>
+      </c>
+      <c r="E843" s="1">
+        <f>VLOOKUP(B843,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F843">
+        <v>89</v>
+      </c>
+      <c r="G843">
+        <f>IF(C843=8,VLOOKUP(B843-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B843,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C844">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D844">
+        <v>9048</v>
+      </c>
+      <c r="E844" s="1">
+        <f>VLOOKUP(B844,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F844">
+        <v>89</v>
+      </c>
+      <c r="G844">
+        <f>IF(C844=8,VLOOKUP(B844-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B844,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C845">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D845">
+        <v>9048</v>
+      </c>
+      <c r="E845" s="1">
+        <f>VLOOKUP(B845,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F845">
+        <v>89</v>
+      </c>
+      <c r="G845">
+        <f>IF(C845=8,VLOOKUP(B845-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B845,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C846">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D846">
+        <v>9048</v>
+      </c>
+      <c r="E846" s="1">
+        <f>VLOOKUP(B846,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F846">
+        <v>89</v>
+      </c>
+      <c r="G846">
+        <f>IF(C846=8,VLOOKUP(B846-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B846,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C847">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D847">
+        <v>9048</v>
+      </c>
+      <c r="E847" s="1">
+        <f>VLOOKUP(B847,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F847">
+        <v>89</v>
+      </c>
+      <c r="G847">
+        <f>IF(C847=8,VLOOKUP(B847-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B847,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848">
+        <f t="shared" si="25"/>
+        <v>106</v>
+      </c>
+      <c r="C848">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D848">
+        <v>9048</v>
+      </c>
+      <c r="E848" s="1">
+        <f>VLOOKUP(B848,balance!J:K,2,FALSE)</f>
+        <v>11500</v>
+      </c>
+      <c r="F848">
+        <v>89</v>
+      </c>
+      <c r="G848">
+        <f>IF(C848=8,VLOOKUP(B848-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B848,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849">
+        <f t="shared" si="25"/>
+        <v>107</v>
+      </c>
+      <c r="C849">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D849">
+        <v>9048</v>
+      </c>
+      <c r="E849" s="1">
+        <f>VLOOKUP(B849,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F849">
+        <v>89</v>
+      </c>
+      <c r="G849">
+        <f>IF(C849=8,VLOOKUP(B849-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B849,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.33949999999999997</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850">
+        <f t="shared" ref="B850:B913" si="27">B842+1</f>
+        <v>107</v>
+      </c>
+      <c r="C850">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D850">
+        <v>9048</v>
+      </c>
+      <c r="E850" s="1">
+        <f>VLOOKUP(B850,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F850">
+        <v>89</v>
+      </c>
+      <c r="G850">
+        <f>IF(C850=8,VLOOKUP(B850-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B850,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851">
+        <f t="shared" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="C851">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D851">
+        <v>9048</v>
+      </c>
+      <c r="E851" s="1">
+        <f>VLOOKUP(B851,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F851">
+        <v>89</v>
+      </c>
+      <c r="G851">
+        <f>IF(C851=8,VLOOKUP(B851-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B851,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852">
+        <f t="shared" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="C852">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D852">
+        <v>9048</v>
+      </c>
+      <c r="E852" s="1">
+        <f>VLOOKUP(B852,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F852">
+        <v>89</v>
+      </c>
+      <c r="G852">
+        <f>IF(C852=8,VLOOKUP(B852-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B852,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853">
+        <f t="shared" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="C853">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D853">
+        <v>9048</v>
+      </c>
+      <c r="E853" s="1">
+        <f>VLOOKUP(B853,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F853">
+        <v>89</v>
+      </c>
+      <c r="G853">
+        <f>IF(C853=8,VLOOKUP(B853-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B853,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854">
+        <f t="shared" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="C854">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D854">
+        <v>9048</v>
+      </c>
+      <c r="E854" s="1">
+        <f>VLOOKUP(B854,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F854">
+        <v>89</v>
+      </c>
+      <c r="G854">
+        <f>IF(C854=8,VLOOKUP(B854-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B854,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855">
+        <f t="shared" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="C855">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D855">
+        <v>9048</v>
+      </c>
+      <c r="E855" s="1">
+        <f>VLOOKUP(B855,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F855">
+        <v>89</v>
+      </c>
+      <c r="G855">
+        <f>IF(C855=8,VLOOKUP(B855-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B855,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856">
+        <f t="shared" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="C856">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D856">
+        <v>9048</v>
+      </c>
+      <c r="E856" s="1">
+        <f>VLOOKUP(B856,balance!J:K,2,FALSE)</f>
+        <v>11600</v>
+      </c>
+      <c r="F856">
+        <v>89</v>
+      </c>
+      <c r="G856">
+        <f>IF(C856=8,VLOOKUP(B856-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B856,balance!X:Z,2,FALSE)/100)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C857">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D857">
+        <v>9048</v>
+      </c>
+      <c r="E857" s="1">
+        <f>VLOOKUP(B857,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F857">
+        <v>89</v>
+      </c>
+      <c r="G857">
+        <f>IF(C857=8,VLOOKUP(B857-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B857,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.34649999999999997</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C858">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D858">
+        <v>9048</v>
+      </c>
+      <c r="E858" s="1">
+        <f>VLOOKUP(B858,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F858">
+        <v>89</v>
+      </c>
+      <c r="G858">
+        <f>IF(C858=8,VLOOKUP(B858-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B858,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C859">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D859">
+        <v>9048</v>
+      </c>
+      <c r="E859" s="1">
+        <f>VLOOKUP(B859,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F859">
+        <v>89</v>
+      </c>
+      <c r="G859">
+        <f>IF(C859=8,VLOOKUP(B859-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B859,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C860">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D860">
+        <v>9048</v>
+      </c>
+      <c r="E860" s="1">
+        <f>VLOOKUP(B860,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F860">
+        <v>89</v>
+      </c>
+      <c r="G860">
+        <f>IF(C860=8,VLOOKUP(B860-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B860,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C861">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D861">
+        <v>9048</v>
+      </c>
+      <c r="E861" s="1">
+        <f>VLOOKUP(B861,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F861">
+        <v>89</v>
+      </c>
+      <c r="G861">
+        <f>IF(C861=8,VLOOKUP(B861-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B861,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C862">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D862">
+        <v>9048</v>
+      </c>
+      <c r="E862" s="1">
+        <f>VLOOKUP(B862,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F862">
+        <v>89</v>
+      </c>
+      <c r="G862">
+        <f>IF(C862=8,VLOOKUP(B862-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B862,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C863">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D863">
+        <v>9048</v>
+      </c>
+      <c r="E863" s="1">
+        <f>VLOOKUP(B863,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F863">
+        <v>89</v>
+      </c>
+      <c r="G863">
+        <f>IF(C863=8,VLOOKUP(B863-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B863,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="C864">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D864">
+        <v>9048</v>
+      </c>
+      <c r="E864" s="1">
+        <f>VLOOKUP(B864,balance!J:K,2,FALSE)</f>
+        <v>11700</v>
+      </c>
+      <c r="F864">
+        <v>89</v>
+      </c>
+      <c r="G864">
+        <f>IF(C864=8,VLOOKUP(B864-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B864,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C865">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D865">
+        <v>9048</v>
+      </c>
+      <c r="E865" s="1">
+        <f>VLOOKUP(B865,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F865">
+        <v>89</v>
+      </c>
+      <c r="G865">
+        <f>IF(C865=8,VLOOKUP(B865-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B865,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.35419999999999996</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C866">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D866">
+        <v>9048</v>
+      </c>
+      <c r="E866" s="1">
+        <f>VLOOKUP(B866,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F866">
+        <v>89</v>
+      </c>
+      <c r="G866">
+        <f>IF(C866=8,VLOOKUP(B866-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B866,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.1699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C867">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D867">
+        <v>9048</v>
+      </c>
+      <c r="E867" s="1">
+        <f>VLOOKUP(B867,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F867">
+        <v>89</v>
+      </c>
+      <c r="G867">
+        <f>IF(C867=8,VLOOKUP(B867-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B867,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.1699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C868">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D868">
+        <v>9048</v>
+      </c>
+      <c r="E868" s="1">
+        <f>VLOOKUP(B868,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F868">
+        <v>89</v>
+      </c>
+      <c r="G868">
+        <f>IF(C868=8,VLOOKUP(B868-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B868,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.1699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C869">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D869">
+        <v>9048</v>
+      </c>
+      <c r="E869" s="1">
+        <f>VLOOKUP(B869,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F869">
+        <v>89</v>
+      </c>
+      <c r="G869">
+        <f>IF(C869=8,VLOOKUP(B869-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B869,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.1699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C870">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D870">
+        <v>9048</v>
+      </c>
+      <c r="E870" s="1">
+        <f>VLOOKUP(B870,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F870">
+        <v>89</v>
+      </c>
+      <c r="G870">
+        <f>IF(C870=8,VLOOKUP(B870-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B870,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.1699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C871">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D871">
+        <v>9048</v>
+      </c>
+      <c r="E871" s="1">
+        <f>VLOOKUP(B871,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F871">
+        <v>89</v>
+      </c>
+      <c r="G871">
+        <f>IF(C871=8,VLOOKUP(B871-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B871,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.1699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872">
+        <f t="shared" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="C872">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D872">
+        <v>9048</v>
+      </c>
+      <c r="E872" s="1">
+        <f>VLOOKUP(B872,balance!J:K,2,FALSE)</f>
+        <v>11800</v>
+      </c>
+      <c r="F872">
+        <v>89</v>
+      </c>
+      <c r="G872">
+        <f>IF(C872=8,VLOOKUP(B872-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B872,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.1699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C873">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D873">
+        <v>9048</v>
+      </c>
+      <c r="E873" s="1">
+        <f>VLOOKUP(B873,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F873">
+        <v>89</v>
+      </c>
+      <c r="G873">
+        <f>IF(C873=8,VLOOKUP(B873-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B873,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.3619</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C874">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D874">
+        <v>9048</v>
+      </c>
+      <c r="E874" s="1">
+        <f>VLOOKUP(B874,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F874">
+        <v>89</v>
+      </c>
+      <c r="G874">
+        <f>IF(C874=8,VLOOKUP(B874-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B874,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C875">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D875">
+        <v>9048</v>
+      </c>
+      <c r="E875" s="1">
+        <f>VLOOKUP(B875,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F875">
+        <v>89</v>
+      </c>
+      <c r="G875">
+        <f>IF(C875=8,VLOOKUP(B875-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B875,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C876">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D876">
+        <v>9048</v>
+      </c>
+      <c r="E876" s="1">
+        <f>VLOOKUP(B876,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F876">
+        <v>89</v>
+      </c>
+      <c r="G876">
+        <f>IF(C876=8,VLOOKUP(B876-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B876,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C877">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D877">
+        <v>9048</v>
+      </c>
+      <c r="E877" s="1">
+        <f>VLOOKUP(B877,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F877">
+        <v>89</v>
+      </c>
+      <c r="G877">
+        <f>IF(C877=8,VLOOKUP(B877-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B877,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C878">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D878">
+        <v>9048</v>
+      </c>
+      <c r="E878" s="1">
+        <f>VLOOKUP(B878,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F878">
+        <v>89</v>
+      </c>
+      <c r="G878">
+        <f>IF(C878=8,VLOOKUP(B878-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B878,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C879">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D879">
+        <v>9048</v>
+      </c>
+      <c r="E879" s="1">
+        <f>VLOOKUP(B879,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F879">
+        <v>89</v>
+      </c>
+      <c r="G879">
+        <f>IF(C879=8,VLOOKUP(B879-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B879,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880">
+        <f t="shared" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="C880">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D880">
+        <v>9048</v>
+      </c>
+      <c r="E880" s="1">
+        <f>VLOOKUP(B880,balance!J:K,2,FALSE)</f>
+        <v>11900</v>
+      </c>
+      <c r="F880">
+        <v>89</v>
+      </c>
+      <c r="G880">
+        <f>IF(C880=8,VLOOKUP(B880-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B880,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.2799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C881">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D881">
+        <v>9048</v>
+      </c>
+      <c r="E881" s="1">
+        <f>VLOOKUP(B881,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F881">
+        <v>89</v>
+      </c>
+      <c r="G881">
+        <f>IF(C881=8,VLOOKUP(B881-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B881,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.36959999999999993</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C882">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D882">
+        <v>9048</v>
+      </c>
+      <c r="E882" s="1">
+        <f>VLOOKUP(B882,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F882">
+        <v>89</v>
+      </c>
+      <c r="G882">
+        <f>IF(C882=8,VLOOKUP(B882-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B882,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C883">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D883">
+        <v>9048</v>
+      </c>
+      <c r="E883" s="1">
+        <f>VLOOKUP(B883,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F883">
+        <v>89</v>
+      </c>
+      <c r="G883">
+        <f>IF(C883=8,VLOOKUP(B883-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B883,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C884">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D884">
+        <v>9048</v>
+      </c>
+      <c r="E884" s="1">
+        <f>VLOOKUP(B884,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F884">
+        <v>89</v>
+      </c>
+      <c r="G884">
+        <f>IF(C884=8,VLOOKUP(B884-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B884,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C885">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D885">
+        <v>9048</v>
+      </c>
+      <c r="E885" s="1">
+        <f>VLOOKUP(B885,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F885">
+        <v>89</v>
+      </c>
+      <c r="G885">
+        <f>IF(C885=8,VLOOKUP(B885-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B885,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C886">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D886">
+        <v>9048</v>
+      </c>
+      <c r="E886" s="1">
+        <f>VLOOKUP(B886,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F886">
+        <v>89</v>
+      </c>
+      <c r="G886">
+        <f>IF(C886=8,VLOOKUP(B886-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B886,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C887">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D887">
+        <v>9048</v>
+      </c>
+      <c r="E887" s="1">
+        <f>VLOOKUP(B887,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F887">
+        <v>89</v>
+      </c>
+      <c r="G887">
+        <f>IF(C887=8,VLOOKUP(B887-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B887,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888">
+        <f t="shared" si="27"/>
+        <v>111</v>
+      </c>
+      <c r="C888">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D888">
+        <v>9048</v>
+      </c>
+      <c r="E888" s="1">
+        <f>VLOOKUP(B888,balance!J:K,2,FALSE)</f>
+        <v>12000</v>
+      </c>
+      <c r="F888">
+        <v>89</v>
+      </c>
+      <c r="G888">
+        <f>IF(C888=8,VLOOKUP(B888-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B888,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C889">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D889">
+        <v>9048</v>
+      </c>
+      <c r="E889" s="1">
+        <f>VLOOKUP(B889,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F889">
+        <v>89</v>
+      </c>
+      <c r="G889">
+        <f>IF(C889=8,VLOOKUP(B889-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B889,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.37729999999999997</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C890">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D890">
+        <v>9048</v>
+      </c>
+      <c r="E890" s="1">
+        <f>VLOOKUP(B890,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F890">
+        <v>89</v>
+      </c>
+      <c r="G890">
+        <f>IF(C890=8,VLOOKUP(B890-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B890,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C891">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D891">
+        <v>9048</v>
+      </c>
+      <c r="E891" s="1">
+        <f>VLOOKUP(B891,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F891">
+        <v>89</v>
+      </c>
+      <c r="G891">
+        <f>IF(C891=8,VLOOKUP(B891-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B891,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C892">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D892">
+        <v>9048</v>
+      </c>
+      <c r="E892" s="1">
+        <f>VLOOKUP(B892,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F892">
+        <v>89</v>
+      </c>
+      <c r="G892">
+        <f>IF(C892=8,VLOOKUP(B892-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B892,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C893">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D893">
+        <v>9048</v>
+      </c>
+      <c r="E893" s="1">
+        <f>VLOOKUP(B893,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F893">
+        <v>89</v>
+      </c>
+      <c r="G893">
+        <f>IF(C893=8,VLOOKUP(B893-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B893,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C894">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D894">
+        <v>9048</v>
+      </c>
+      <c r="E894" s="1">
+        <f>VLOOKUP(B894,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F894">
+        <v>89</v>
+      </c>
+      <c r="G894">
+        <f>IF(C894=8,VLOOKUP(B894-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B894,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C895">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D895">
+        <v>9048</v>
+      </c>
+      <c r="E895" s="1">
+        <f>VLOOKUP(B895,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F895">
+        <v>89</v>
+      </c>
+      <c r="G895">
+        <f>IF(C895=8,VLOOKUP(B895-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B895,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="C896">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D896">
+        <v>9048</v>
+      </c>
+      <c r="E896" s="1">
+        <f>VLOOKUP(B896,balance!J:K,2,FALSE)</f>
+        <v>12100</v>
+      </c>
+      <c r="F896">
+        <v>89</v>
+      </c>
+      <c r="G896">
+        <f>IF(C896=8,VLOOKUP(B896-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B896,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C897">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D897">
+        <v>9048</v>
+      </c>
+      <c r="E897" s="1">
+        <f>VLOOKUP(B897,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F897">
+        <v>89</v>
+      </c>
+      <c r="G897">
+        <f>IF(C897=8,VLOOKUP(B897-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B897,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C898">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D898">
+        <v>9048</v>
+      </c>
+      <c r="E898" s="1">
+        <f>VLOOKUP(B898,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F898">
+        <v>89</v>
+      </c>
+      <c r="G898">
+        <f>IF(C898=8,VLOOKUP(B898-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B898,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C899">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D899">
+        <v>9048</v>
+      </c>
+      <c r="E899" s="1">
+        <f>VLOOKUP(B899,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F899">
+        <v>89</v>
+      </c>
+      <c r="G899">
+        <f>IF(C899=8,VLOOKUP(B899-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B899,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C900">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="D900">
+        <v>9048</v>
+      </c>
+      <c r="E900" s="1">
+        <f>VLOOKUP(B900,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F900">
+        <v>89</v>
+      </c>
+      <c r="G900">
+        <f>IF(C900=8,VLOOKUP(B900-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B900,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C901">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D901">
+        <v>9048</v>
+      </c>
+      <c r="E901" s="1">
+        <f>VLOOKUP(B901,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F901">
+        <v>89</v>
+      </c>
+      <c r="G901">
+        <f>IF(C901=8,VLOOKUP(B901-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B901,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C902">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D902">
+        <v>9048</v>
+      </c>
+      <c r="E902" s="1">
+        <f>VLOOKUP(B902,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F902">
+        <v>89</v>
+      </c>
+      <c r="G902">
+        <f>IF(C902=8,VLOOKUP(B902-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B902,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C903">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="D903">
+        <v>9048</v>
+      </c>
+      <c r="E903" s="1">
+        <f>VLOOKUP(B903,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F903">
+        <v>89</v>
+      </c>
+      <c r="G903">
+        <f>IF(C903=8,VLOOKUP(B903-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B903,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904">
+        <f t="shared" si="27"/>
+        <v>113</v>
+      </c>
+      <c r="C904">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="D904">
+        <v>9048</v>
+      </c>
+      <c r="E904" s="1">
+        <f>VLOOKUP(B904,balance!J:K,2,FALSE)</f>
+        <v>12200</v>
+      </c>
+      <c r="F904">
+        <v>89</v>
+      </c>
+      <c r="G904">
+        <f>IF(C904=8,VLOOKUP(B904-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B904,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C905">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="D905">
+        <v>9048</v>
+      </c>
+      <c r="E905" s="1">
+        <f>VLOOKUP(B905,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F905">
+        <v>89</v>
+      </c>
+      <c r="G905">
+        <f>IF(C905=8,VLOOKUP(B905-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B905,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.39340000000000003</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C906">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D906">
+        <v>9048</v>
+      </c>
+      <c r="E906" s="1">
+        <f>VLOOKUP(B906,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F906">
+        <v>89</v>
+      </c>
+      <c r="G906">
+        <f>IF(C906=8,VLOOKUP(B906-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B906,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C907">
+        <f t="shared" ref="C907:C970" si="28">C899</f>
+        <v>2</v>
+      </c>
+      <c r="D907">
+        <v>9048</v>
+      </c>
+      <c r="E907" s="1">
+        <f>VLOOKUP(B907,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F907">
+        <v>89</v>
+      </c>
+      <c r="G907">
+        <f>IF(C907=8,VLOOKUP(B907-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B907,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C908">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D908">
+        <v>9048</v>
+      </c>
+      <c r="E908" s="1">
+        <f>VLOOKUP(B908,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F908">
+        <v>89</v>
+      </c>
+      <c r="G908">
+        <f>IF(C908=8,VLOOKUP(B908-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B908,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C909">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D909">
+        <v>9048</v>
+      </c>
+      <c r="E909" s="1">
+        <f>VLOOKUP(B909,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F909">
+        <v>89</v>
+      </c>
+      <c r="G909">
+        <f>IF(C909=8,VLOOKUP(B909-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B909,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C910">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D910">
+        <v>9048</v>
+      </c>
+      <c r="E910" s="1">
+        <f>VLOOKUP(B910,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F910">
+        <v>89</v>
+      </c>
+      <c r="G910">
+        <f>IF(C910=8,VLOOKUP(B910-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B910,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C911">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="D911">
+        <v>9048</v>
+      </c>
+      <c r="E911" s="1">
+        <f>VLOOKUP(B911,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F911">
+        <v>89</v>
+      </c>
+      <c r="G911">
+        <f>IF(C911=8,VLOOKUP(B911-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B911,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912">
+        <f t="shared" si="27"/>
+        <v>114</v>
+      </c>
+      <c r="C912">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D912">
+        <v>9048</v>
+      </c>
+      <c r="E912" s="1">
+        <f>VLOOKUP(B912,balance!J:K,2,FALSE)</f>
+        <v>12300</v>
+      </c>
+      <c r="F912">
+        <v>89</v>
+      </c>
+      <c r="G912">
+        <f>IF(C912=8,VLOOKUP(B912-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B912,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.74E-2</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913">
+        <f t="shared" si="27"/>
+        <v>115</v>
+      </c>
+      <c r="C913">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D913">
+        <v>9048</v>
+      </c>
+      <c r="E913" s="1">
+        <f>VLOOKUP(B913,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F913">
+        <v>89</v>
+      </c>
+      <c r="G913">
+        <f>IF(C913=8,VLOOKUP(B913-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B913,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.40179999999999999</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914">
+        <f t="shared" ref="B914:B977" si="29">B906+1</f>
+        <v>115</v>
+      </c>
+      <c r="C914">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D914">
+        <v>9048</v>
+      </c>
+      <c r="E914" s="1">
+        <f>VLOOKUP(B914,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F914">
+        <v>89</v>
+      </c>
+      <c r="G914">
+        <f>IF(C914=8,VLOOKUP(B914-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B914,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.8599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="C915">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D915">
+        <v>9048</v>
+      </c>
+      <c r="E915" s="1">
+        <f>VLOOKUP(B915,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F915">
+        <v>89</v>
+      </c>
+      <c r="G915">
+        <f>IF(C915=8,VLOOKUP(B915-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B915,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.8599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="C916">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D916">
+        <v>9048</v>
+      </c>
+      <c r="E916" s="1">
+        <f>VLOOKUP(B916,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F916">
+        <v>89</v>
+      </c>
+      <c r="G916">
+        <f>IF(C916=8,VLOOKUP(B916-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B916,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.8599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="C917">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D917">
+        <v>9048</v>
+      </c>
+      <c r="E917" s="1">
+        <f>VLOOKUP(B917,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F917">
+        <v>89</v>
+      </c>
+      <c r="G917">
+        <f>IF(C917=8,VLOOKUP(B917-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B917,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.8599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="C918">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D918">
+        <v>9048</v>
+      </c>
+      <c r="E918" s="1">
+        <f>VLOOKUP(B918,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F918">
+        <v>89</v>
+      </c>
+      <c r="G918">
+        <f>IF(C918=8,VLOOKUP(B918-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B918,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.8599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="C919">
+        <f>C911</f>
+        <v>6</v>
+      </c>
+      <c r="D919">
+        <v>9048</v>
+      </c>
+      <c r="E919" s="1">
+        <f>VLOOKUP(B919,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F919">
+        <v>89</v>
+      </c>
+      <c r="G919">
+        <f>IF(C919=8,VLOOKUP(B919-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B919,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.8599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920">
+        <f t="shared" si="29"/>
+        <v>115</v>
+      </c>
+      <c r="C920">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D920">
+        <v>9048</v>
+      </c>
+      <c r="E920" s="1">
+        <f>VLOOKUP(B920,balance!J:K,2,FALSE)</f>
+        <v>12400</v>
+      </c>
+      <c r="F920">
+        <v>89</v>
+      </c>
+      <c r="G920">
+        <f>IF(C920=8,VLOOKUP(B920-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B920,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.8599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C921">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D921">
+        <v>9048</v>
+      </c>
+      <c r="E921" s="1">
+        <f>VLOOKUP(B921,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F921">
+        <v>89</v>
+      </c>
+      <c r="G921">
+        <f>IF(C921=8,VLOOKUP(B921-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B921,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.41019999999999995</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C922">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D922">
+        <v>9048</v>
+      </c>
+      <c r="E922" s="1">
+        <f>VLOOKUP(B922,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F922">
+        <v>89</v>
+      </c>
+      <c r="G922">
+        <f>IF(C922=8,VLOOKUP(B922-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B922,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.9799999999999992E-2</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C923">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D923">
+        <v>9048</v>
+      </c>
+      <c r="E923" s="1">
+        <f>VLOOKUP(B923,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F923">
+        <v>89</v>
+      </c>
+      <c r="G923">
+        <f>IF(C923=8,VLOOKUP(B923-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B923,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.9799999999999992E-2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C924">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D924">
+        <v>9048</v>
+      </c>
+      <c r="E924" s="1">
+        <f>VLOOKUP(B924,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F924">
+        <v>89</v>
+      </c>
+      <c r="G924">
+        <f>IF(C924=8,VLOOKUP(B924-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B924,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.9799999999999992E-2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C925">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D925">
+        <v>9048</v>
+      </c>
+      <c r="E925" s="1">
+        <f>VLOOKUP(B925,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F925">
+        <v>89</v>
+      </c>
+      <c r="G925">
+        <f>IF(C925=8,VLOOKUP(B925-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B925,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.9799999999999992E-2</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C926">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D926">
+        <v>9048</v>
+      </c>
+      <c r="E926" s="1">
+        <f>VLOOKUP(B926,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F926">
+        <v>89</v>
+      </c>
+      <c r="G926">
+        <f>IF(C926=8,VLOOKUP(B926-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B926,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.9799999999999992E-2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C927">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="D927">
+        <v>9048</v>
+      </c>
+      <c r="E927" s="1">
+        <f>VLOOKUP(B927,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F927">
+        <v>89</v>
+      </c>
+      <c r="G927">
+        <f>IF(C927=8,VLOOKUP(B927-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B927,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.9799999999999992E-2</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928">
+        <f t="shared" si="29"/>
+        <v>116</v>
+      </c>
+      <c r="C928">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D928">
+        <v>9048</v>
+      </c>
+      <c r="E928" s="1">
+        <f>VLOOKUP(B928,balance!J:K,2,FALSE)</f>
+        <v>12500</v>
+      </c>
+      <c r="F928">
+        <v>89</v>
+      </c>
+      <c r="G928">
+        <f>IF(C928=8,VLOOKUP(B928-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B928,balance!X:Z,2,FALSE)/100)</f>
+        <v>5.9799999999999992E-2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C929">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D929">
+        <v>9048</v>
+      </c>
+      <c r="E929" s="1">
+        <f>VLOOKUP(B929,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F929">
+        <v>89</v>
+      </c>
+      <c r="G929">
+        <f>IF(C929=8,VLOOKUP(B929-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B929,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.41859999999999997</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C930">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D930">
+        <v>9048</v>
+      </c>
+      <c r="E930" s="1">
+        <f>VLOOKUP(B930,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F930">
+        <v>89</v>
+      </c>
+      <c r="G930">
+        <f>IF(C930=8,VLOOKUP(B930-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B930,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C931">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D931">
+        <v>9048</v>
+      </c>
+      <c r="E931" s="1">
+        <f>VLOOKUP(B931,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F931">
+        <v>89</v>
+      </c>
+      <c r="G931">
+        <f>IF(C931=8,VLOOKUP(B931-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B931,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C932">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D932">
+        <v>9048</v>
+      </c>
+      <c r="E932" s="1">
+        <f>VLOOKUP(B932,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F932">
+        <v>89</v>
+      </c>
+      <c r="G932">
+        <f>IF(C932=8,VLOOKUP(B932-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B932,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C933">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D933">
+        <v>9048</v>
+      </c>
+      <c r="E933" s="1">
+        <f>VLOOKUP(B933,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F933">
+        <v>89</v>
+      </c>
+      <c r="G933">
+        <f>IF(C933=8,VLOOKUP(B933-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B933,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C934">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D934">
+        <v>9048</v>
+      </c>
+      <c r="E934" s="1">
+        <f>VLOOKUP(B934,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F934">
+        <v>89</v>
+      </c>
+      <c r="G934">
+        <f>IF(C934=8,VLOOKUP(B934-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B934,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C935">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="D935">
+        <v>9048</v>
+      </c>
+      <c r="E935" s="1">
+        <f>VLOOKUP(B935,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F935">
+        <v>89</v>
+      </c>
+      <c r="G935">
+        <f>IF(C935=8,VLOOKUP(B935-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B935,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936">
+        <f t="shared" si="29"/>
+        <v>117</v>
+      </c>
+      <c r="C936">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D936">
+        <v>9048</v>
+      </c>
+      <c r="E936" s="1">
+        <f>VLOOKUP(B936,balance!J:K,2,FALSE)</f>
+        <v>12600</v>
+      </c>
+      <c r="F936">
+        <v>89</v>
+      </c>
+      <c r="G936">
+        <f>IF(C936=8,VLOOKUP(B936-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B936,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.1099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C937">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D937">
+        <v>9048</v>
+      </c>
+      <c r="E937" s="1">
+        <f>VLOOKUP(B937,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F937">
+        <v>89</v>
+      </c>
+      <c r="G937">
+        <f>IF(C937=8,VLOOKUP(B937-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B937,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.42769999999999997</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C938">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D938">
+        <v>9048</v>
+      </c>
+      <c r="E938" s="1">
+        <f>VLOOKUP(B938,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F938">
+        <v>89</v>
+      </c>
+      <c r="G938">
+        <f>IF(C938=8,VLOOKUP(B938-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B938,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C939">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D939">
+        <v>9048</v>
+      </c>
+      <c r="E939" s="1">
+        <f>VLOOKUP(B939,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F939">
+        <v>89</v>
+      </c>
+      <c r="G939">
+        <f>IF(C939=8,VLOOKUP(B939-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B939,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C940">
+        <f>C932</f>
+        <v>3</v>
+      </c>
+      <c r="D940">
+        <v>9048</v>
+      </c>
+      <c r="E940" s="1">
+        <f>VLOOKUP(B940,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F940">
+        <v>89</v>
+      </c>
+      <c r="G940">
+        <f>IF(C940=8,VLOOKUP(B940-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B940,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C941">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D941">
+        <v>9048</v>
+      </c>
+      <c r="E941" s="1">
+        <f>VLOOKUP(B941,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F941">
+        <v>89</v>
+      </c>
+      <c r="G941">
+        <f>IF(C941=8,VLOOKUP(B941-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B941,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C942">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D942">
+        <v>9048</v>
+      </c>
+      <c r="E942" s="1">
+        <f>VLOOKUP(B942,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F942">
+        <v>89</v>
+      </c>
+      <c r="G942">
+        <f>IF(C942=8,VLOOKUP(B942-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B942,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C943">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="D943">
+        <v>9048</v>
+      </c>
+      <c r="E943" s="1">
+        <f>VLOOKUP(B943,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F943">
+        <v>89</v>
+      </c>
+      <c r="G943">
+        <f>IF(C943=8,VLOOKUP(B943-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B943,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944">
+        <f t="shared" si="29"/>
+        <v>118</v>
+      </c>
+      <c r="C944">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D944">
+        <v>9048</v>
+      </c>
+      <c r="E944" s="1">
+        <f>VLOOKUP(B944,balance!J:K,2,FALSE)</f>
+        <v>12700</v>
+      </c>
+      <c r="F944">
+        <v>89</v>
+      </c>
+      <c r="G944">
+        <f>IF(C944=8,VLOOKUP(B944-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B944,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.2400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C945">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D945">
+        <v>9048</v>
+      </c>
+      <c r="E945" s="1">
+        <f>VLOOKUP(B945,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F945">
+        <v>89</v>
+      </c>
+      <c r="G945">
+        <f>IF(C945=8,VLOOKUP(B945-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B945,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.43680000000000002</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C946">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D946">
+        <v>9048</v>
+      </c>
+      <c r="E946" s="1">
+        <f>VLOOKUP(B946,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F946">
+        <v>89</v>
+      </c>
+      <c r="G946">
+        <f>IF(C946=8,VLOOKUP(B946-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B946,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C947">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D947">
+        <v>9048</v>
+      </c>
+      <c r="E947" s="1">
+        <f>VLOOKUP(B947,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F947">
+        <v>89</v>
+      </c>
+      <c r="G947">
+        <f>IF(C947=8,VLOOKUP(B947-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B947,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C948">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D948">
+        <v>9048</v>
+      </c>
+      <c r="E948" s="1">
+        <f>VLOOKUP(B948,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F948">
+        <v>89</v>
+      </c>
+      <c r="G948">
+        <f>IF(C948=8,VLOOKUP(B948-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B948,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C949">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D949">
+        <v>9048</v>
+      </c>
+      <c r="E949" s="1">
+        <f>VLOOKUP(B949,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F949">
+        <v>89</v>
+      </c>
+      <c r="G949">
+        <f>IF(C949=8,VLOOKUP(B949-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B949,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C950">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D950">
+        <v>9048</v>
+      </c>
+      <c r="E950" s="1">
+        <f>VLOOKUP(B950,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F950">
+        <v>89</v>
+      </c>
+      <c r="G950">
+        <f>IF(C950=8,VLOOKUP(B950-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B950,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C951">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="D951">
+        <v>9048</v>
+      </c>
+      <c r="E951" s="1">
+        <f>VLOOKUP(B951,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F951">
+        <v>89</v>
+      </c>
+      <c r="G951">
+        <f>IF(C951=8,VLOOKUP(B951-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B951,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952">
+        <f t="shared" si="29"/>
+        <v>119</v>
+      </c>
+      <c r="C952">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D952">
+        <v>9048</v>
+      </c>
+      <c r="E952" s="1">
+        <f>VLOOKUP(B952,balance!J:K,2,FALSE)</f>
+        <v>12800</v>
+      </c>
+      <c r="F952">
+        <v>89</v>
+      </c>
+      <c r="G952">
+        <f>IF(C952=8,VLOOKUP(B952-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B952,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C953">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D953">
+        <v>9048</v>
+      </c>
+      <c r="E953" s="1">
+        <f>VLOOKUP(B953,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F953">
+        <v>89</v>
+      </c>
+      <c r="G953">
+        <f>IF(C953=8,VLOOKUP(B953-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B953,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.44590000000000002</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C954">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D954">
+        <v>9048</v>
+      </c>
+      <c r="E954" s="1">
+        <f>VLOOKUP(B954,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F954">
+        <v>89</v>
+      </c>
+      <c r="G954">
+        <f>IF(C954=8,VLOOKUP(B954-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B954,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C955">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D955">
+        <v>9048</v>
+      </c>
+      <c r="E955" s="1">
+        <f>VLOOKUP(B955,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F955">
+        <v>89</v>
+      </c>
+      <c r="G955">
+        <f>IF(C955=8,VLOOKUP(B955-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B955,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C956">
+        <f>C948</f>
+        <v>3</v>
+      </c>
+      <c r="D956">
+        <v>9048</v>
+      </c>
+      <c r="E956" s="1">
+        <f>VLOOKUP(B956,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F956">
+        <v>89</v>
+      </c>
+      <c r="G956">
+        <f>IF(C956=8,VLOOKUP(B956-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B956,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C957">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D957">
+        <v>9048</v>
+      </c>
+      <c r="E957" s="1">
+        <f>VLOOKUP(B957,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F957">
+        <v>89</v>
+      </c>
+      <c r="G957">
+        <f>IF(C957=8,VLOOKUP(B957-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B957,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C958">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D958">
+        <v>9048</v>
+      </c>
+      <c r="E958" s="1">
+        <f>VLOOKUP(B958,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F958">
+        <v>89</v>
+      </c>
+      <c r="G958">
+        <f>IF(C958=8,VLOOKUP(B958-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B958,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C959">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="D959">
+        <v>9048</v>
+      </c>
+      <c r="E959" s="1">
+        <f>VLOOKUP(B959,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F959">
+        <v>89</v>
+      </c>
+      <c r="G959">
+        <f>IF(C959=8,VLOOKUP(B959-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B959,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="C960">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D960">
+        <v>9048</v>
+      </c>
+      <c r="E960" s="1">
+        <f>VLOOKUP(B960,balance!J:K,2,FALSE)</f>
+        <v>12900</v>
+      </c>
+      <c r="F960">
+        <v>89</v>
+      </c>
+      <c r="G960">
+        <f>IF(C960=8,VLOOKUP(B960-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B960,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C961">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D961">
+        <v>9048</v>
+      </c>
+      <c r="E961" s="1">
+        <f>VLOOKUP(B961,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F961">
+        <v>89</v>
+      </c>
+      <c r="G961">
+        <f>IF(C961=8,VLOOKUP(B961-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B961,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C962">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D962">
+        <v>9048</v>
+      </c>
+      <c r="E962" s="1">
+        <f>VLOOKUP(B962,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F962">
+        <v>89</v>
+      </c>
+      <c r="G962">
+        <f>IF(C962=8,VLOOKUP(B962-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B962,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C963">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="D963">
+        <v>9048</v>
+      </c>
+      <c r="E963" s="1">
+        <f>VLOOKUP(B963,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F963">
+        <v>89</v>
+      </c>
+      <c r="G963">
+        <f>IF(C963=8,VLOOKUP(B963-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B963,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C964">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="D964">
+        <v>9048</v>
+      </c>
+      <c r="E964" s="1">
+        <f>VLOOKUP(B964,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F964">
+        <v>89</v>
+      </c>
+      <c r="G964">
+        <f>IF(C964=8,VLOOKUP(B964-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B964,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C965">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="D965">
+        <v>9048</v>
+      </c>
+      <c r="E965" s="1">
+        <f>VLOOKUP(B965,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F965">
+        <v>89</v>
+      </c>
+      <c r="G965">
+        <f>IF(C965=8,VLOOKUP(B965-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B965,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C966">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="D966">
+        <v>9048</v>
+      </c>
+      <c r="E966" s="1">
+        <f>VLOOKUP(B966,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F966">
+        <v>89</v>
+      </c>
+      <c r="G966">
+        <f>IF(C966=8,VLOOKUP(B966-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B966,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C967">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="D967">
+        <v>9048</v>
+      </c>
+      <c r="E967" s="1">
+        <f>VLOOKUP(B967,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F967">
+        <v>89</v>
+      </c>
+      <c r="G967">
+        <f>IF(C967=8,VLOOKUP(B967-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B967,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968">
+        <f t="shared" si="29"/>
+        <v>121</v>
+      </c>
+      <c r="C968">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="D968">
+        <v>9048</v>
+      </c>
+      <c r="E968" s="1">
+        <f>VLOOKUP(B968,balance!J:K,2,FALSE)</f>
+        <v>13000</v>
+      </c>
+      <c r="F968">
+        <v>89</v>
+      </c>
+      <c r="G968">
+        <f>IF(C968=8,VLOOKUP(B968-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B968,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C969">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="D969">
+        <v>9048</v>
+      </c>
+      <c r="E969" s="1">
+        <f>VLOOKUP(B969,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F969">
+        <v>89</v>
+      </c>
+      <c r="G969">
+        <f>IF(C969=8,VLOOKUP(B969-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B969,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.46479999999999999</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C970">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D970">
+        <v>9048</v>
+      </c>
+      <c r="E970" s="1">
+        <f>VLOOKUP(B970,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F970">
+        <v>89</v>
+      </c>
+      <c r="G970">
+        <f>IF(C970=8,VLOOKUP(B970-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B970,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C971">
+        <f t="shared" ref="C971:C986" si="30">C963</f>
+        <v>2</v>
+      </c>
+      <c r="D971">
+        <v>9048</v>
+      </c>
+      <c r="E971" s="1">
+        <f>VLOOKUP(B971,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F971">
+        <v>89</v>
+      </c>
+      <c r="G971">
+        <f>IF(C971=8,VLOOKUP(B971-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B971,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C972">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D972">
+        <v>9048</v>
+      </c>
+      <c r="E972" s="1">
+        <f>VLOOKUP(B972,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F972">
+        <v>89</v>
+      </c>
+      <c r="G972">
+        <f>IF(C972=8,VLOOKUP(B972-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B972,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C973">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D973">
+        <v>9048</v>
+      </c>
+      <c r="E973" s="1">
+        <f>VLOOKUP(B973,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F973">
+        <v>89</v>
+      </c>
+      <c r="G973">
+        <f>IF(C973=8,VLOOKUP(B973-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B973,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C974">
+        <f>C966</f>
+        <v>5</v>
+      </c>
+      <c r="D974">
+        <v>9048</v>
+      </c>
+      <c r="E974" s="1">
+        <f>VLOOKUP(B974,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F974">
+        <v>89</v>
+      </c>
+      <c r="G974">
+        <f>IF(C974=8,VLOOKUP(B974-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B974,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C975">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="D975">
+        <v>9048</v>
+      </c>
+      <c r="E975" s="1">
+        <f>VLOOKUP(B975,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F975">
+        <v>89</v>
+      </c>
+      <c r="G975">
+        <f>IF(C975=8,VLOOKUP(B975-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B975,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976">
+        <f t="shared" si="29"/>
+        <v>122</v>
+      </c>
+      <c r="C976">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="D976">
+        <v>9048</v>
+      </c>
+      <c r="E976" s="1">
+        <f>VLOOKUP(B976,balance!J:K,2,FALSE)</f>
+        <v>13100</v>
+      </c>
+      <c r="F976">
+        <v>89</v>
+      </c>
+      <c r="G976">
+        <f>IF(C976=8,VLOOKUP(B976-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B976,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977">
+        <f t="shared" si="29"/>
+        <v>123</v>
+      </c>
+      <c r="C977">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="D977">
+        <v>9048</v>
+      </c>
+      <c r="E977" s="1">
+        <f>VLOOKUP(B977,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F977">
+        <v>89</v>
+      </c>
+      <c r="G977">
+        <f>IF(C977=8,VLOOKUP(B977-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B977,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.47459999999999991</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978">
+        <f t="shared" ref="B978:B1001" si="31">B970+1</f>
+        <v>123</v>
+      </c>
+      <c r="C978">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D978">
+        <v>9048</v>
+      </c>
+      <c r="E978" s="1">
+        <f>VLOOKUP(B978,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F978">
+        <v>89</v>
+      </c>
+      <c r="G978">
+        <f>IF(C978=8,VLOOKUP(B978-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B978,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979">
+        <f t="shared" si="31"/>
+        <v>123</v>
+      </c>
+      <c r="C979">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="D979">
+        <v>9048</v>
+      </c>
+      <c r="E979" s="1">
+        <f>VLOOKUP(B979,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F979">
+        <v>89</v>
+      </c>
+      <c r="G979">
+        <f>IF(C979=8,VLOOKUP(B979-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B979,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980">
+        <f t="shared" si="31"/>
+        <v>123</v>
+      </c>
+      <c r="C980">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="D980">
+        <v>9048</v>
+      </c>
+      <c r="E980" s="1">
+        <f>VLOOKUP(B980,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F980">
+        <v>89</v>
+      </c>
+      <c r="G980">
+        <f>IF(C980=8,VLOOKUP(B980-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B980,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981">
+        <f t="shared" si="31"/>
+        <v>123</v>
+      </c>
+      <c r="C981">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D981">
+        <v>9048</v>
+      </c>
+      <c r="E981" s="1">
+        <f>VLOOKUP(B981,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F981">
+        <v>89</v>
+      </c>
+      <c r="G981">
+        <f>IF(C981=8,VLOOKUP(B981-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B981,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982">
+        <f t="shared" si="31"/>
+        <v>123</v>
+      </c>
+      <c r="C982">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="D982">
+        <v>9048</v>
+      </c>
+      <c r="E982" s="1">
+        <f>VLOOKUP(B982,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F982">
+        <v>89</v>
+      </c>
+      <c r="G982">
+        <f>IF(C982=8,VLOOKUP(B982-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B982,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983">
+        <f t="shared" si="31"/>
+        <v>123</v>
+      </c>
+      <c r="C983">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="D983">
+        <v>9048</v>
+      </c>
+      <c r="E983" s="1">
+        <f>VLOOKUP(B983,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F983">
+        <v>89</v>
+      </c>
+      <c r="G983">
+        <f>IF(C983=8,VLOOKUP(B983-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B983,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984">
+        <f t="shared" si="31"/>
+        <v>123</v>
+      </c>
+      <c r="C984">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="D984">
+        <v>9048</v>
+      </c>
+      <c r="E984" s="1">
+        <f>VLOOKUP(B984,balance!J:K,2,FALSE)</f>
+        <v>13200</v>
+      </c>
+      <c r="F984">
+        <v>89</v>
+      </c>
+      <c r="G984">
+        <f>IF(C984=8,VLOOKUP(B984-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B984,balance!X:Z,2,FALSE)/100)</f>
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C985">
+        <f>C977</f>
+        <v>8</v>
+      </c>
+      <c r="D985">
+        <v>9048</v>
+      </c>
+      <c r="E985" s="1">
+        <f>VLOOKUP(B985,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F985">
+        <v>89</v>
+      </c>
+      <c r="G985">
+        <f>IF(C985=8,VLOOKUP(B985-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B985,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.4844</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C986">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="D986">
+        <v>9048</v>
+      </c>
+      <c r="E986" s="1">
+        <f>VLOOKUP(B986,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F986">
+        <v>89</v>
+      </c>
+      <c r="G986">
+        <f>IF(C986=8,VLOOKUP(B986-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B986,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C987">
+        <f>C979</f>
+        <v>2</v>
+      </c>
+      <c r="D987">
+        <v>9048</v>
+      </c>
+      <c r="E987" s="1">
+        <f>VLOOKUP(B987,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F987">
+        <v>89</v>
+      </c>
+      <c r="G987">
+        <f>IF(C987=8,VLOOKUP(B987-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B987,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C988">
+        <f t="shared" ref="C988:C1001" si="32">C980</f>
+        <v>3</v>
+      </c>
+      <c r="D988">
+        <v>9048</v>
+      </c>
+      <c r="E988" s="1">
+        <f>VLOOKUP(B988,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F988">
+        <v>89</v>
+      </c>
+      <c r="G988">
+        <f>IF(C988=8,VLOOKUP(B988-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B988,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C989">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="D989">
+        <v>9048</v>
+      </c>
+      <c r="E989" s="1">
+        <f>VLOOKUP(B989,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F989">
+        <v>89</v>
+      </c>
+      <c r="G989">
+        <f>IF(C989=8,VLOOKUP(B989-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B989,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C990">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="D990">
+        <v>9048</v>
+      </c>
+      <c r="E990" s="1">
+        <f>VLOOKUP(B990,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F990">
+        <v>89</v>
+      </c>
+      <c r="G990">
+        <f>IF(C990=8,VLOOKUP(B990-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B990,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C991">
+        <f>C983</f>
+        <v>6</v>
+      </c>
+      <c r="D991">
+        <v>9048</v>
+      </c>
+      <c r="E991" s="1">
+        <f>VLOOKUP(B991,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F991">
+        <v>89</v>
+      </c>
+      <c r="G991">
+        <f>IF(C991=8,VLOOKUP(B991-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B991,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992">
+        <f t="shared" si="31"/>
+        <v>124</v>
+      </c>
+      <c r="C992">
+        <f>C984</f>
+        <v>7</v>
+      </c>
+      <c r="D992">
+        <v>9048</v>
+      </c>
+      <c r="E992" s="1">
+        <f>VLOOKUP(B992,balance!J:K,2,FALSE)</f>
+        <v>13300</v>
+      </c>
+      <c r="F992">
+        <v>89</v>
+      </c>
+      <c r="G992">
+        <f>IF(C992=8,VLOOKUP(B992-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B992,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C993">
+        <f>C985</f>
+        <v>8</v>
+      </c>
+      <c r="D993">
+        <v>9048</v>
+      </c>
+      <c r="E993" s="1">
+        <f>VLOOKUP(B993,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F993">
+        <v>89</v>
+      </c>
+      <c r="G993">
+        <f>IF(C993=8,VLOOKUP(B993-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B993,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.49419999999999997</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C994">
+        <f>C986</f>
+        <v>1</v>
+      </c>
+      <c r="D994">
+        <v>9048</v>
+      </c>
+      <c r="E994" s="1">
+        <f>VLOOKUP(B994,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F994">
+        <v>89</v>
+      </c>
+      <c r="G994">
+        <f>IF(C994=8,VLOOKUP(B994-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B994,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C995">
+        <f>C987</f>
+        <v>2</v>
+      </c>
+      <c r="D995">
+        <v>9048</v>
+      </c>
+      <c r="E995" s="1">
+        <f>VLOOKUP(B995,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F995">
+        <v>89</v>
+      </c>
+      <c r="G995">
+        <f>IF(C995=8,VLOOKUP(B995-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B995,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C996">
+        <f>C988</f>
+        <v>3</v>
+      </c>
+      <c r="D996">
+        <v>9048</v>
+      </c>
+      <c r="E996" s="1">
+        <f>VLOOKUP(B996,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F996">
+        <v>89</v>
+      </c>
+      <c r="G996">
+        <f>IF(C996=8,VLOOKUP(B996-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B996,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C997">
+        <f>C989</f>
+        <v>4</v>
+      </c>
+      <c r="D997">
+        <v>9048</v>
+      </c>
+      <c r="E997" s="1">
+        <f>VLOOKUP(B997,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F997">
+        <v>89</v>
+      </c>
+      <c r="G997">
+        <f>IF(C997=8,VLOOKUP(B997-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B997,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C998">
+        <f>C990</f>
+        <v>5</v>
+      </c>
+      <c r="D998">
+        <v>9048</v>
+      </c>
+      <c r="E998" s="1">
+        <f>VLOOKUP(B998,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F998">
+        <v>89</v>
+      </c>
+      <c r="G998">
+        <f>IF(C998=8,VLOOKUP(B998-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B998,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C999">
+        <f>C991</f>
+        <v>6</v>
+      </c>
+      <c r="D999">
+        <v>9048</v>
+      </c>
+      <c r="E999" s="1">
+        <f>VLOOKUP(B999,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F999">
+        <v>89</v>
+      </c>
+      <c r="G999">
+        <f>IF(C999=8,VLOOKUP(B999-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B999,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000">
+        <f t="shared" si="31"/>
+        <v>125</v>
+      </c>
+      <c r="C1000">
+        <f>C992</f>
+        <v>7</v>
+      </c>
+      <c r="D1000">
+        <v>9048</v>
+      </c>
+      <c r="E1000" s="1">
+        <f>VLOOKUP(B1000,balance!J:K,2,FALSE)</f>
+        <v>13400</v>
+      </c>
+      <c r="F1000">
+        <v>89</v>
+      </c>
+      <c r="G1000">
+        <f>IF(C1000=8,VLOOKUP(B1000-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B1000,balance!X:Z,2,FALSE)/100)</f>
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>999</v>
+      </c>
+      <c r="B1001">
+        <f>B993+1</f>
+        <v>126</v>
+      </c>
+      <c r="C1001">
+        <f>C993</f>
+        <v>8</v>
+      </c>
+      <c r="D1001">
+        <v>9048</v>
+      </c>
+      <c r="E1001" s="1">
+        <f>VLOOKUP(B1001,balance!J:K,2,FALSE)</f>
+        <v>13500</v>
+      </c>
+      <c r="F1001">
+        <v>89</v>
+      </c>
+      <c r="G1001">
+        <f>IF(C1001=8,VLOOKUP(B1001-1,balance!X:Z,3,FALSE)/100,VLOOKUP(B1001,balance!X:Z,2,FALSE)/100)</f>
+        <v>0.50470000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -22022,10 +27632,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E49ABD-1971-4E3F-A720-5325F2244383}">
   <dimension ref="A1:AE204"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="AC46" sqref="AC46"/>
+      <selection pane="topRight" activeCell="AA203" sqref="AA203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24481,7 +30091,7 @@
         <f>SUM($S$5:S30)</f>
         <v>468000</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="10">
         <f t="shared" si="10"/>
         <v>11.7</v>
       </c>
@@ -24504,7 +30114,7 @@
         <f t="shared" si="11"/>
         <v>8.4</v>
       </c>
-      <c r="AC30" s="17">
+      <c r="AC30" s="3">
         <f>SUM($AB$5:AB30)</f>
         <v>127.40000000000002</v>
       </c>
@@ -25165,7 +30775,7 @@
         <f>SUM($S$5:S38)</f>
         <v>720800</v>
       </c>
-      <c r="V38" s="16">
+      <c r="V38" s="10">
         <f t="shared" si="10"/>
         <v>18.02</v>
       </c>
@@ -25188,7 +30798,7 @@
         <f t="shared" si="11"/>
         <v>11.200000000000001</v>
       </c>
-      <c r="AC38" s="17">
+      <c r="AC38" s="3">
         <f>SUM($AB$5:AB38)</f>
         <v>206.08</v>
       </c>
